--- a/Team-Data/2007-08/11-15-2007-08.xlsx
+++ b/Team-Data/2007-08/11-15-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -795,13 +862,13 @@
         <v>22</v>
       </c>
       <c r="AU2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV2" t="n">
         <v>19</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>1</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>17.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -968,19 +1035,19 @@
         <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS3" t="n">
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW3" t="n">
         <v>1</v>
@@ -989,7 +1056,7 @@
         <v>12</v>
       </c>
       <c r="AY3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -1123,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
         <v>26</v>
@@ -1138,7 +1205,7 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
         <v>14</v>
@@ -1150,13 +1217,13 @@
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -1212,103 +1279,103 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.143</v>
+        <v>0.167</v>
       </c>
       <c r="H5" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I5" t="n">
-        <v>33.3</v>
+        <v>32.3</v>
       </c>
       <c r="J5" t="n">
-        <v>85.90000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.388</v>
+        <v>0.381</v>
       </c>
       <c r="L5" t="n">
         <v>4.7</v>
       </c>
       <c r="M5" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.268</v>
+        <v>0.262</v>
       </c>
       <c r="O5" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="P5" t="n">
         <v>23.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.735</v>
+        <v>0.725</v>
       </c>
       <c r="R5" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="S5" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="T5" t="n">
-        <v>43.1</v>
+        <v>42.5</v>
       </c>
       <c r="U5" t="n">
-        <v>19.7</v>
+        <v>20.3</v>
       </c>
       <c r="V5" t="n">
-        <v>16.3</v>
+        <v>16.7</v>
       </c>
       <c r="W5" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>22.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>23.4</v>
+        <v>24</v>
       </c>
       <c r="AB5" t="n">
-        <v>88.7</v>
+        <v>86.5</v>
       </c>
       <c r="AC5" t="n">
         <v>-9.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
         <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
         <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1317,52 +1384,52 @@
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN5" t="n">
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
         <v>26</v>
       </c>
       <c r="AT5" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW5" t="n">
         <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BB5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC5" t="n">
         <v>29</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1557,7 @@
         <v>9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK6" t="n">
         <v>20</v>
@@ -1502,7 +1569,7 @@
         <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>21</v>
@@ -1517,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -1529,13 +1596,13 @@
         <v>15</v>
       </c>
       <c r="AW6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY6" t="n">
         <v>19</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>18</v>
       </c>
       <c r="AZ6" t="n">
         <v>24</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -1576,46 +1643,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.75</v>
+        <v>0.714</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J7" t="n">
-        <v>77.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.478</v>
+        <v>0.472</v>
       </c>
       <c r="L7" t="n">
         <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>18.6</v>
+        <v>19</v>
       </c>
       <c r="N7" t="n">
-        <v>0.369</v>
+        <v>0.361</v>
       </c>
       <c r="O7" t="n">
         <v>22.1</v>
       </c>
       <c r="P7" t="n">
-        <v>26.3</v>
+        <v>25.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.843</v>
+        <v>0.861</v>
       </c>
       <c r="R7" t="n">
         <v>8.9</v>
@@ -1627,79 +1694,79 @@
         <v>41.3</v>
       </c>
       <c r="U7" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="V7" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="X7" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE7" t="n">
         <v>10</v>
       </c>
-      <c r="AE7" t="n">
-        <v>7</v>
-      </c>
       <c r="AF7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
         <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL7" t="n">
         <v>11</v>
       </c>
       <c r="AM7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>28</v>
       </c>
       <c r="AS7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT7" t="n">
         <v>24</v>
@@ -1711,25 +1778,25 @@
         <v>3</v>
       </c>
       <c r="AW7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AX7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY7" t="n">
         <v>3</v>
       </c>
-      <c r="AY7" t="n">
-        <v>2</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
@@ -1857,16 +1924,16 @@
         <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
       </c>
       <c r="AM8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>6</v>
@@ -1902,10 +1969,10 @@
         <v>9</v>
       </c>
       <c r="AZ8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH9" t="n">
         <v>9</v>
@@ -2066,7 +2133,7 @@
         <v>13</v>
       </c>
       <c r="AT9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU9" t="n">
         <v>5</v>
@@ -2087,7 +2154,7 @@
         <v>6</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-11</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE10" t="n">
         <v>30</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
         <v>30</v>
@@ -2260,10 +2327,10 @@
         <v>23</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
         <v>10</v>
@@ -2442,7 +2509,7 @@
         <v>11</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
         <v>11</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>18</v>
@@ -2582,7 +2649,7 @@
         <v>18</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
@@ -2615,7 +2682,7 @@
         <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV12" t="n">
         <v>25</v>
@@ -2624,10 +2691,10 @@
         <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>1.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
         <v>9</v>
@@ -2809,7 +2876,7 @@
         <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
         <v>14</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>2.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
         <v>12</v>
@@ -2988,7 +3055,7 @@
         <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
         <v>16</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>21</v>
@@ -3140,7 +3207,7 @@
         <v>7</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3158,22 +3225,22 @@
         <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>26</v>
@@ -3328,7 +3395,7 @@
         <v>30</v>
       </c>
       <c r="AP16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ16" t="n">
         <v>30</v>
@@ -3352,7 +3419,7 @@
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
@@ -3516,7 +3583,7 @@
         <v>24</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS17" t="n">
         <v>23</v>
@@ -3534,7 +3601,7 @@
         <v>25</v>
       </c>
       <c r="AX17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-6</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
         <v>26</v>
@@ -3674,7 +3741,7 @@
         <v>7</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK18" t="n">
         <v>15</v>
@@ -3692,10 +3759,10 @@
         <v>29</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
         <v>8</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
@@ -3865,7 +3932,7 @@
         <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN19" t="n">
         <v>25</v>
@@ -3889,7 +3956,7 @@
         <v>21</v>
       </c>
       <c r="AU19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV19" t="n">
         <v>22</v>
@@ -3898,7 +3965,7 @@
         <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY19" t="n">
         <v>14</v>
@@ -3910,7 +3977,7 @@
         <v>6</v>
       </c>
       <c r="BB19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -4026,10 +4093,10 @@
         <v>1</v>
       </c>
       <c r="AF20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH20" t="n">
         <v>9</v>
@@ -4053,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP20" t="n">
         <v>30</v>
@@ -4065,10 +4132,10 @@
         <v>23</v>
       </c>
       <c r="AS20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU20" t="n">
         <v>17</v>
@@ -4086,7 +4153,7 @@
         <v>5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA20" t="n">
         <v>25</v>
@@ -4095,7 +4162,7 @@
         <v>17</v>
       </c>
       <c r="BC20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4271,7 +4338,7 @@
         <v>9</v>
       </c>
       <c r="BA21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -4390,16 +4457,16 @@
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
         <v>7</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
         <v>21</v>
@@ -4423,7 +4490,7 @@
         <v>9</v>
       </c>
       <c r="AQ22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR22" t="n">
         <v>26</v>
@@ -4441,7 +4508,7 @@
         <v>9</v>
       </c>
       <c r="AW22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX22" t="n">
         <v>23</v>
@@ -4450,16 +4517,16 @@
         <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB22" t="n">
         <v>7</v>
       </c>
       <c r="BC22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>-3.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
         <v>24</v>
@@ -4611,7 +4678,7 @@
         <v>7</v>
       </c>
       <c r="AS23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT23" t="n">
         <v>7</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -4670,94 +4737,94 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>0.778</v>
+        <v>0.75</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="J24" t="n">
-        <v>85.90000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.472</v>
+        <v>0.468</v>
       </c>
       <c r="L24" t="n">
         <v>9.9</v>
       </c>
       <c r="M24" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.374</v>
+        <v>0.369</v>
       </c>
       <c r="O24" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="P24" t="n">
-        <v>19.9</v>
+        <v>19</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.76</v>
+        <v>0.763</v>
       </c>
       <c r="R24" t="n">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="S24" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="T24" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U24" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="V24" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="W24" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>106.1</v>
+        <v>105.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
         <v>9</v>
@@ -4766,10 +4833,10 @@
         <v>2</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL24" t="n">
         <v>2</v>
@@ -4778,22 +4845,22 @@
         <v>2</v>
       </c>
       <c r="AN24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR24" t="n">
         <v>24</v>
       </c>
       <c r="AS24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT24" t="n">
         <v>26</v>
@@ -4808,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="AX24" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AY24" t="n">
         <v>10</v>
@@ -4817,13 +4884,13 @@
         <v>2</v>
       </c>
       <c r="BA24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB24" t="n">
         <v>4</v>
       </c>
       <c r="BC24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4951,7 +5018,7 @@
         <v>22</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>19</v>
@@ -4975,7 +5042,7 @@
         <v>25</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT25" t="n">
         <v>28</v>
@@ -4987,7 +5054,7 @@
         <v>12</v>
       </c>
       <c r="AW25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -5112,13 +5179,13 @@
         <v>-8.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>21</v>
       </c>
       <c r="AF26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG26" t="n">
         <v>24</v>
@@ -5151,7 +5218,7 @@
         <v>13</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR26" t="n">
         <v>27</v>
@@ -5166,7 +5233,7 @@
         <v>30</v>
       </c>
       <c r="AV26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW26" t="n">
         <v>12</v>
@@ -5175,7 +5242,7 @@
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ26" t="n">
         <v>11</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -5216,85 +5283,85 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0.778</v>
+        <v>0.875</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>36.3</v>
+        <v>36.9</v>
       </c>
       <c r="J27" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.463</v>
+        <v>0.47</v>
       </c>
       <c r="L27" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="O27" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="S27" t="n">
+        <v>33</v>
+      </c>
+      <c r="T27" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="U27" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="V27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W27" t="n">
         <v>7.9</v>
       </c>
-      <c r="M27" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="O27" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="P27" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.761</v>
-      </c>
-      <c r="R27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="S27" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="T27" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="U27" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="V27" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="W27" t="n">
-        <v>7.8</v>
-      </c>
       <c r="X27" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>18.8</v>
+        <v>17.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.2</v>
+        <v>99</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.7</v>
+        <v>10.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -5309,13 +5376,13 @@
         <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
         <v>23</v>
       </c>
       <c r="AK27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL27" t="n">
         <v>6</v>
@@ -5327,40 +5394,40 @@
         <v>7</v>
       </c>
       <c r="AO27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP27" t="n">
         <v>22</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR27" t="n">
         <v>30</v>
       </c>
       <c r="AS27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AU27" t="n">
         <v>11</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>14</v>
       </c>
       <c r="AV27" t="n">
         <v>1</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AY27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA27" t="n">
         <v>30</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5582,7 @@
         <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>13</v>
@@ -5527,7 +5594,7 @@
         <v>4</v>
       </c>
       <c r="AU28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>4.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -5846,10 +5913,10 @@
         <v>1</v>
       </c>
       <c r="AF30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH30" t="n">
         <v>9</v>
@@ -5870,7 +5937,7 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
         <v>1</v>
@@ -5888,7 +5955,7 @@
         <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5900,10 +5967,10 @@
         <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>26</v>
@@ -5915,7 +5982,7 @@
         <v>1</v>
       </c>
       <c r="BC30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>21</v>
@@ -6034,10 +6101,10 @@
         <v>21</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ31" t="n">
         <v>8</v>
@@ -6049,7 +6116,7 @@
         <v>25</v>
       </c>
       <c r="AM31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN31" t="n">
         <v>30</v>
@@ -6082,7 +6149,7 @@
         <v>20</v>
       </c>
       <c r="AX31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-15-2007-08</t>
+          <t>2007-11-15</t>
         </is>
       </c>
     </row>
